--- a/CashFlow/FTV_cashflow.xlsx
+++ b/CashFlow/FTV_cashflow.xlsx
@@ -530,22 +530,22 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1779200000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2433000000.0</v>
+        <v>-7300000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2026400000.0</v>
+        <v>629800000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1388000000.0</v>
+        <v>634700000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>802100000.0</v>
+        <v>726100000.0</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>118800000.0</v>
+        <v>709400000.0</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>108700000.0</v>
@@ -706,22 +706,22 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-55800000.0</v>
+        <v>1910400000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>18100000.0</v>
+        <v>2736000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>75000000.0</v>
+        <v>3021000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>169300000.0</v>
+        <v>2375100000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>195600000.0</v>
+        <v>1651700000.0</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>189100000.0</v>
+        <v>893500000.0</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>121400000.0</v>
